--- a/Code/Results/Cases/Case_0_226/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_226/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.00114895478007</v>
+        <v>1.036885187800112</v>
       </c>
       <c r="D2">
-        <v>1.01417239209107</v>
+        <v>1.046176383518953</v>
       </c>
       <c r="E2">
-        <v>1.007413516045742</v>
+        <v>1.035747255347281</v>
       </c>
       <c r="F2">
-        <v>1.015839514575458</v>
+        <v>1.053035732050989</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047850667438606</v>
+        <v>1.034564385524929</v>
       </c>
       <c r="J2">
-        <v>1.023295355030226</v>
+        <v>1.041991068914332</v>
       </c>
       <c r="K2">
-        <v>1.025437751743316</v>
+        <v>1.04894255285619</v>
       </c>
       <c r="L2">
-        <v>1.018770526048295</v>
+        <v>1.038542974423473</v>
       </c>
       <c r="M2">
-        <v>1.027082503631765</v>
+        <v>1.055782812123899</v>
       </c>
       <c r="N2">
-        <v>1.024748551807987</v>
+        <v>1.043470815750236</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.006533628662694</v>
+        <v>1.037990150260277</v>
       </c>
       <c r="D3">
-        <v>1.019150299909977</v>
+        <v>1.04725260269285</v>
       </c>
       <c r="E3">
-        <v>1.011768554389272</v>
+        <v>1.036689582796459</v>
       </c>
       <c r="F3">
-        <v>1.021420173902302</v>
+        <v>1.054260887623274</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049302755894853</v>
+        <v>1.034751415274852</v>
       </c>
       <c r="J3">
-        <v>1.026847751296231</v>
+        <v>1.042739399093332</v>
       </c>
       <c r="K3">
-        <v>1.029543875131259</v>
+        <v>1.049829673808202</v>
       </c>
       <c r="L3">
-        <v>1.022253036682548</v>
+        <v>1.039294407664711</v>
       </c>
       <c r="M3">
-        <v>1.031786123544703</v>
+        <v>1.056819875976903</v>
       </c>
       <c r="N3">
-        <v>1.028305992884155</v>
+        <v>1.044220208643925</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.009932805291767</v>
+        <v>1.038704639402143</v>
       </c>
       <c r="D4">
-        <v>1.022297716053506</v>
+        <v>1.047948828407883</v>
       </c>
       <c r="E4">
-        <v>1.014523979048478</v>
+        <v>1.037299285452897</v>
       </c>
       <c r="F4">
-        <v>1.024950294993577</v>
+        <v>1.055053781990452</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050201427959359</v>
+        <v>1.034870098712282</v>
       </c>
       <c r="J4">
-        <v>1.029085796996476</v>
+        <v>1.043222578670478</v>
       </c>
       <c r="K4">
-        <v>1.032134274317909</v>
+        <v>1.050402946617055</v>
       </c>
       <c r="L4">
-        <v>1.024450216652898</v>
+        <v>1.039779968825536</v>
       </c>
       <c r="M4">
-        <v>1.034756636478975</v>
+        <v>1.057490497739609</v>
       </c>
       <c r="N4">
-        <v>1.030547216866002</v>
+        <v>1.044704074391492</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.011342300345209</v>
+        <v>1.039004892961898</v>
       </c>
       <c r="D5">
-        <v>1.023603980972179</v>
+        <v>1.048241483878764</v>
       </c>
       <c r="E5">
-        <v>1.015667974759983</v>
+        <v>1.037555593508824</v>
       </c>
       <c r="F5">
-        <v>1.026415800122117</v>
+        <v>1.055387148378964</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050569685527154</v>
+        <v>1.034919433423477</v>
       </c>
       <c r="J5">
-        <v>1.030012702228958</v>
+        <v>1.043425458651465</v>
       </c>
       <c r="K5">
-        <v>1.033207960813942</v>
+        <v>1.050643770470399</v>
       </c>
       <c r="L5">
-        <v>1.02536095515375</v>
+        <v>1.039983939398948</v>
       </c>
       <c r="M5">
-        <v>1.035988651942653</v>
+        <v>1.057772325321326</v>
       </c>
       <c r="N5">
-        <v>1.031475438410231</v>
+        <v>1.044907242485323</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.011577839811951</v>
+        <v>1.039055299982286</v>
       </c>
       <c r="D6">
-        <v>1.023822337087079</v>
+        <v>1.048290619816569</v>
       </c>
       <c r="E6">
-        <v>1.015859229807739</v>
+        <v>1.037598628121025</v>
       </c>
       <c r="F6">
-        <v>1.02666079953171</v>
+        <v>1.055443124057098</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050630964990103</v>
+        <v>1.03492768410386</v>
       </c>
       <c r="J6">
-        <v>1.030167529527796</v>
+        <v>1.043459508516417</v>
       </c>
       <c r="K6">
-        <v>1.033387356378183</v>
+        <v>1.050684195309617</v>
       </c>
       <c r="L6">
-        <v>1.025513126587935</v>
+        <v>1.040018177617585</v>
       </c>
       <c r="M6">
-        <v>1.036194547812372</v>
+        <v>1.057819639460538</v>
       </c>
       <c r="N6">
-        <v>1.031630485581593</v>
+        <v>1.044941340704989</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.009951714647465</v>
+        <v>1.038708651866139</v>
       </c>
       <c r="D7">
-        <v>1.022315235952677</v>
+        <v>1.047952739032618</v>
       </c>
       <c r="E7">
-        <v>1.014539320934725</v>
+        <v>1.037302710296547</v>
       </c>
       <c r="F7">
-        <v>1.024969949016829</v>
+        <v>1.055058236315402</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050206385812675</v>
+        <v>1.034870760125099</v>
       </c>
       <c r="J7">
-        <v>1.029098236552479</v>
+        <v>1.043225290539659</v>
       </c>
       <c r="K7">
-        <v>1.032148680373537</v>
+        <v>1.050406165224093</v>
       </c>
       <c r="L7">
-        <v>1.02446243624433</v>
+        <v>1.039782694916193</v>
       </c>
       <c r="M7">
-        <v>1.034773163802516</v>
+        <v>1.057494263932821</v>
       </c>
       <c r="N7">
-        <v>1.0305596740876</v>
+        <v>1.044706790111839</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002986871045459</v>
+        <v>1.037258718192485</v>
       </c>
       <c r="D8">
-        <v>1.015870389143334</v>
+        <v>1.046540130271603</v>
       </c>
       <c r="E8">
-        <v>1.008898649024617</v>
+        <v>1.036065728967626</v>
       </c>
       <c r="F8">
-        <v>1.017742792823582</v>
+        <v>1.053449751304537</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048350039608915</v>
+        <v>1.034628076916546</v>
       </c>
       <c r="J8">
-        <v>1.024508783889803</v>
+        <v>1.042244186135129</v>
       </c>
       <c r="K8">
-        <v>1.026839592886639</v>
+        <v>1.049242515863286</v>
       </c>
       <c r="L8">
-        <v>1.019959416658478</v>
+        <v>1.038797062908943</v>
       </c>
       <c r="M8">
-        <v>1.028687672699562</v>
+        <v>1.056133381691467</v>
       </c>
       <c r="N8">
-        <v>1.025963703875726</v>
+        <v>1.04372429242652</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9900214531375441</v>
+        <v>1.034699912203093</v>
       </c>
       <c r="D9">
-        <v>1.003915263672354</v>
+        <v>1.044049683893755</v>
       </c>
       <c r="E9">
-        <v>0.998451038514591</v>
+        <v>1.033885649230949</v>
       </c>
       <c r="F9">
-        <v>1.00434814615362</v>
+        <v>1.050616403775127</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044753171195808</v>
+        <v>1.034182547095278</v>
       </c>
       <c r="J9">
-        <v>1.015931568116482</v>
+        <v>1.040507375099616</v>
       </c>
       <c r="K9">
-        <v>1.016945136243629</v>
+        <v>1.04718622424691</v>
       </c>
       <c r="L9">
-        <v>1.01156929662801</v>
+        <v>1.037055139754492</v>
       </c>
       <c r="M9">
-        <v>1.017371069447214</v>
+        <v>1.053732026759395</v>
       </c>
       <c r="N9">
-        <v>1.017374307472188</v>
+        <v>1.041985014920121</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9808500204259653</v>
+        <v>1.032991397544446</v>
       </c>
       <c r="D10">
-        <v>0.9954902981556263</v>
+        <v>1.042388509681125</v>
       </c>
       <c r="E10">
-        <v>0.9911008218279739</v>
+        <v>1.032432007229662</v>
       </c>
       <c r="F10">
-        <v>0.9949149302075335</v>
+        <v>1.048728125020806</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042117520118006</v>
+        <v>1.033873509660423</v>
       </c>
       <c r="J10">
-        <v>1.009844578894209</v>
+        <v>1.039344113071726</v>
       </c>
       <c r="K10">
-        <v>1.009941456860987</v>
+        <v>1.045811437078759</v>
       </c>
       <c r="L10">
-        <v>1.005632634402865</v>
+        <v>1.035890402446686</v>
       </c>
       <c r="M10">
-        <v>1.009376608166779</v>
+        <v>1.052128855501452</v>
       </c>
       <c r="N10">
-        <v>1.011278674027031</v>
+        <v>1.040820100926724</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9767379752153953</v>
+        <v>1.032250949379333</v>
       </c>
       <c r="D11">
-        <v>0.9917212485063848</v>
+        <v>1.041668985608133</v>
       </c>
       <c r="E11">
-        <v>0.9878159263267307</v>
+        <v>1.031802499523358</v>
       </c>
       <c r="F11">
-        <v>0.9906958830539163</v>
+        <v>1.04791061222313</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040915194311581</v>
+        <v>1.033736844315518</v>
       </c>
       <c r="J11">
-        <v>1.007111556153601</v>
+        <v>1.038839123647446</v>
       </c>
       <c r="K11">
-        <v>1.006800997154562</v>
+        <v>1.045215199736646</v>
       </c>
       <c r="L11">
-        <v>1.002971333327398</v>
+        <v>1.0353852339823</v>
       </c>
       <c r="M11">
-        <v>1.005795420589705</v>
+        <v>1.051434115581312</v>
       </c>
       <c r="N11">
-        <v>1.008541770080649</v>
+        <v>1.040314394359539</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9751879664460578</v>
+        <v>1.031975814849908</v>
       </c>
       <c r="D12">
-        <v>0.9903018496261655</v>
+        <v>1.041401687637058</v>
       </c>
       <c r="E12">
-        <v>0.9865793972304557</v>
+        <v>1.031568661174015</v>
       </c>
       <c r="F12">
-        <v>0.9891071396039555</v>
+        <v>1.047606968901183</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040458980839398</v>
+        <v>1.03368565256465</v>
       </c>
       <c r="J12">
-        <v>1.00608084518266</v>
+        <v>1.038651353736419</v>
       </c>
       <c r="K12">
-        <v>1.005617239736256</v>
+        <v>1.044993587775687</v>
       </c>
       <c r="L12">
-        <v>1.001968312039464</v>
+        <v>1.035197466766405</v>
       </c>
       <c r="M12">
-        <v>1.004446048052853</v>
+        <v>1.051175973592744</v>
       </c>
       <c r="N12">
-        <v>1.007509595381906</v>
+        <v>1.040126357793701</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9755214968505549</v>
+        <v>1.032034836648913</v>
       </c>
       <c r="D13">
-        <v>0.9906072146317687</v>
+        <v>1.041459025544385</v>
       </c>
       <c r="E13">
-        <v>0.9868453951569689</v>
+        <v>1.031618820806389</v>
       </c>
       <c r="F13">
-        <v>0.989448932016076</v>
+        <v>1.047672100662093</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040557282845758</v>
+        <v>1.033696652743491</v>
       </c>
       <c r="J13">
-        <v>1.006302655369227</v>
+        <v>1.03869163982529</v>
       </c>
       <c r="K13">
-        <v>1.005871958299093</v>
+        <v>1.045041130771902</v>
       </c>
       <c r="L13">
-        <v>1.002184134311878</v>
+        <v>1.035237749143775</v>
       </c>
       <c r="M13">
-        <v>1.004736380566019</v>
+        <v>1.051231349773729</v>
       </c>
       <c r="N13">
-        <v>1.007731720564379</v>
+        <v>1.040166701093438</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9766103212412284</v>
+        <v>1.032228208703602</v>
       </c>
       <c r="D14">
-        <v>0.9916043239336048</v>
+        <v>1.041646891387673</v>
       </c>
       <c r="E14">
-        <v>0.9877140546507768</v>
+        <v>1.031783170602859</v>
       </c>
       <c r="F14">
-        <v>0.990565006292364</v>
+        <v>1.047885512625744</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040877682420841</v>
+        <v>1.033732621523511</v>
       </c>
       <c r="J14">
-        <v>1.007026680009447</v>
+        <v>1.038823606496614</v>
       </c>
       <c r="K14">
-        <v>1.0067035057314</v>
+        <v>1.045196884142034</v>
       </c>
       <c r="L14">
-        <v>1.002888724294595</v>
+        <v>1.035369715641896</v>
       </c>
       <c r="M14">
-        <v>1.005684279228826</v>
+        <v>1.05141277921716</v>
       </c>
       <c r="N14">
-        <v>1.008456773402635</v>
+        <v>1.040298855172572</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9772781394400654</v>
+        <v>1.032347338431604</v>
       </c>
       <c r="D15">
-        <v>0.9922160657389867</v>
+        <v>1.041762637108548</v>
       </c>
       <c r="E15">
-        <v>0.9882470629193375</v>
+        <v>1.031884430443755</v>
       </c>
       <c r="F15">
-        <v>0.9912497497630648</v>
+        <v>1.048017005035839</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041073803080392</v>
+        <v>1.033754726342017</v>
       </c>
       <c r="J15">
-        <v>1.007470686615925</v>
+        <v>1.038904889744701</v>
       </c>
       <c r="K15">
-        <v>1.007213530561348</v>
+        <v>1.045292829978033</v>
       </c>
       <c r="L15">
-        <v>1.00332089725639</v>
+        <v>1.035451007956481</v>
       </c>
       <c r="M15">
-        <v>1.006265734205123</v>
+        <v>1.05152455263561</v>
       </c>
       <c r="N15">
-        <v>1.008901410549423</v>
+        <v>1.040380253852195</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9811198357491336</v>
+        <v>1.033040524831347</v>
       </c>
       <c r="D16">
-        <v>0.9957377861140743</v>
+        <v>1.042436257310676</v>
       </c>
       <c r="E16">
-        <v>0.9913165913826107</v>
+        <v>1.032473784044295</v>
       </c>
       <c r="F16">
-        <v>0.9951919853739505</v>
+        <v>1.04878238315775</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042195991083967</v>
+        <v>1.033882519644522</v>
       </c>
       <c r="J16">
-        <v>1.010023833281356</v>
+        <v>1.039377600337372</v>
       </c>
       <c r="K16">
-        <v>1.01014751951362</v>
+        <v>1.045850987398325</v>
       </c>
       <c r="L16">
-        <v>1.005807272942292</v>
+        <v>1.035923911291928</v>
       </c>
       <c r="M16">
-        <v>1.009611661254553</v>
+        <v>1.052174951291082</v>
       </c>
       <c r="N16">
-        <v>1.011458182975968</v>
+        <v>1.040853635748128</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9834909532912949</v>
+        <v>1.03347516729152</v>
       </c>
       <c r="D17">
-        <v>0.9979136433438687</v>
+        <v>1.042858740656537</v>
       </c>
       <c r="E17">
-        <v>0.9932139720493967</v>
+        <v>1.032843450615496</v>
       </c>
       <c r="F17">
-        <v>0.997627906769414</v>
+        <v>1.049262516977541</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042883260409618</v>
+        <v>1.033961917985873</v>
       </c>
       <c r="J17">
-        <v>1.011598673716232</v>
+        <v>1.039673773567252</v>
       </c>
       <c r="K17">
-        <v>1.011958353108375</v>
+        <v>1.04620085110643</v>
       </c>
       <c r="L17">
-        <v>1.007342040388417</v>
+        <v>1.036220328603747</v>
       </c>
       <c r="M17">
-        <v>1.011677655599162</v>
+        <v>1.052582779513871</v>
       </c>
       <c r="N17">
-        <v>1.013035259864898</v>
+        <v>1.041150229577966</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.984860511124891</v>
+        <v>1.033728624263264</v>
       </c>
       <c r="D18">
-        <v>0.9991711995364796</v>
+        <v>1.043105146429992</v>
       </c>
       <c r="E18">
-        <v>0.9943108943201998</v>
+        <v>1.033059064041882</v>
       </c>
       <c r="F18">
-        <v>0.9990358723053011</v>
+        <v>1.049542583002232</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043278272279108</v>
+        <v>1.034007954700217</v>
       </c>
       <c r="J18">
-        <v>1.012507928552677</v>
+        <v>1.039846402048138</v>
       </c>
       <c r="K18">
-        <v>1.013004254507886</v>
+        <v>1.046404829524319</v>
       </c>
       <c r="L18">
-        <v>1.008228557082645</v>
+        <v>1.036393143805857</v>
       </c>
       <c r="M18">
-        <v>1.0128712686273</v>
+        <v>1.052820605226161</v>
       </c>
       <c r="N18">
-        <v>1.013945805947504</v>
+        <v>1.041323103211096</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9853252517105051</v>
+        <v>1.033815035962916</v>
       </c>
       <c r="D19">
-        <v>0.9995980643273464</v>
+        <v>1.043189160793214</v>
       </c>
       <c r="E19">
-        <v>0.9946832857464627</v>
+        <v>1.03313258150396</v>
       </c>
       <c r="F19">
-        <v>0.9995138105743737</v>
+        <v>1.049638080370875</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043411979789178</v>
+        <v>1.034023605384884</v>
       </c>
       <c r="J19">
-        <v>1.012816406340961</v>
+        <v>1.039905242826201</v>
       </c>
       <c r="K19">
-        <v>1.013359158609465</v>
+        <v>1.046474365455477</v>
       </c>
       <c r="L19">
-        <v>1.008529388058125</v>
+        <v>1.036452055770206</v>
       </c>
       <c r="M19">
-        <v>1.013276353039108</v>
+        <v>1.052901688591168</v>
       </c>
       <c r="N19">
-        <v>1.01425472180963</v>
+        <v>1.041382027549813</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9832379587549833</v>
+        <v>1.033428540756411</v>
       </c>
       <c r="D20">
-        <v>0.9976814012313585</v>
+        <v>1.04281341443407</v>
       </c>
       <c r="E20">
-        <v>0.993011420524292</v>
+        <v>1.032803789600601</v>
       </c>
       <c r="F20">
-        <v>0.9973678960463502</v>
+        <v>1.0492110019215</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042810132174915</v>
+        <v>1.033953427738885</v>
       </c>
       <c r="J20">
-        <v>1.011430678970836</v>
+        <v>1.039642009849591</v>
       </c>
       <c r="K20">
-        <v>1.011765143294361</v>
+        <v>1.046163323476859</v>
       </c>
       <c r="L20">
-        <v>1.007178278969197</v>
+        <v>1.036188534109955</v>
       </c>
       <c r="M20">
-        <v>1.011457186264473</v>
+        <v>1.052539028955898</v>
       </c>
       <c r="N20">
-        <v>1.012867026547696</v>
+        <v>1.041118420752182</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.976290326250269</v>
+        <v>1.032171268200869</v>
       </c>
       <c r="D21">
-        <v>0.9913112462312951</v>
+        <v>1.041591570544571</v>
       </c>
       <c r="E21">
-        <v>0.9874587166766955</v>
+        <v>1.03173477399599</v>
       </c>
       <c r="F21">
-        <v>0.9902369585042364</v>
+        <v>1.047822667654117</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040783601925468</v>
+        <v>1.033722041433267</v>
       </c>
       <c r="J21">
-        <v>1.006813909748707</v>
+        <v>1.038784750971524</v>
       </c>
       <c r="K21">
-        <v>1.006459120875156</v>
+        <v>1.045151022607032</v>
       </c>
       <c r="L21">
-        <v>1.002681647643691</v>
+        <v>1.03533085825659</v>
       </c>
       <c r="M21">
-        <v>1.005405685807182</v>
+        <v>1.051359355113607</v>
       </c>
       <c r="N21">
-        <v>1.00824370098372</v>
+        <v>1.040259944468181</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9717904195006307</v>
+        <v>1.031380196882744</v>
       </c>
       <c r="D22">
-        <v>0.9871931070057192</v>
+        <v>1.040823147596005</v>
       </c>
       <c r="E22">
-        <v>0.9838722117981513</v>
+        <v>1.031062576654471</v>
       </c>
       <c r="F22">
-        <v>0.985627680863842</v>
+        <v>1.046949866389131</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039453557550052</v>
+        <v>1.03357408250691</v>
       </c>
       <c r="J22">
-        <v>1.003820706502241</v>
+        <v>1.038244633484564</v>
       </c>
       <c r="K22">
-        <v>1.003022612986785</v>
+        <v>1.044513721883637</v>
       </c>
       <c r="L22">
-        <v>0.9997700797051252</v>
+        <v>1.03479087902466</v>
       </c>
       <c r="M22">
-        <v>1.001489336012522</v>
+        <v>1.050617157047196</v>
       </c>
       <c r="N22">
-        <v>1.005246247045318</v>
+        <v>1.039719059952436</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9741889102163152</v>
+        <v>1.031799613667886</v>
       </c>
       <c r="D23">
-        <v>0.989387359172378</v>
+        <v>1.041230522528558</v>
       </c>
       <c r="E23">
-        <v>0.9857828834296649</v>
+        <v>1.031418927487163</v>
       </c>
       <c r="F23">
-        <v>0.988083573083602</v>
+        <v>1.04741254586899</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040164094349018</v>
+        <v>1.033652753130931</v>
       </c>
       <c r="J23">
-        <v>1.005416365491756</v>
+        <v>1.038531066823846</v>
       </c>
       <c r="K23">
-        <v>1.004854264589657</v>
+        <v>1.044851645723211</v>
       </c>
       <c r="L23">
-        <v>1.001321864923645</v>
+        <v>1.035077201075058</v>
       </c>
       <c r="M23">
-        <v>1.003576469527336</v>
+        <v>1.05101065712682</v>
       </c>
       <c r="N23">
-        <v>1.006844172053624</v>
+        <v>1.040005900059914</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9833523176292385</v>
+        <v>1.033449609473638</v>
       </c>
       <c r="D24">
-        <v>0.9977863771543222</v>
+        <v>1.042833895469382</v>
       </c>
       <c r="E24">
-        <v>0.9931029750120556</v>
+        <v>1.032821710726896</v>
       </c>
       <c r="F24">
-        <v>0.9974854233566499</v>
+        <v>1.049234279320076</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042843193755085</v>
+        <v>1.033957264965628</v>
       </c>
       <c r="J24">
-        <v>1.01150661730757</v>
+        <v>1.039656362890293</v>
       </c>
       <c r="K24">
-        <v>1.011852478329264</v>
+        <v>1.046180280878655</v>
       </c>
       <c r="L24">
-        <v>1.00725230248737</v>
+        <v>1.03620290092006</v>
       </c>
       <c r="M24">
-        <v>1.01155684215142</v>
+        <v>1.052558798115018</v>
       </c>
       <c r="N24">
-        <v>1.012943072725578</v>
+        <v>1.041132794175849</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9934614778024962</v>
+        <v>1.035361886182615</v>
       </c>
       <c r="D25">
-        <v>1.007082017040944</v>
+        <v>1.044693675747841</v>
       </c>
       <c r="E25">
-        <v>1.001216472056084</v>
+        <v>1.034449296127219</v>
       </c>
       <c r="F25">
-        <v>1.007895017062116</v>
+        <v>1.051348778480648</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045723482766746</v>
+        <v>1.034299846193155</v>
       </c>
       <c r="J25">
-        <v>1.018210910881802</v>
+        <v>1.040957330327623</v>
       </c>
       <c r="K25">
-        <v>1.019571379671047</v>
+        <v>1.047718514569415</v>
       </c>
       <c r="L25">
-        <v>1.013795933168576</v>
+        <v>1.037506076348309</v>
       </c>
       <c r="M25">
-        <v>1.020371996988548</v>
+        <v>1.054353230978479</v>
       </c>
       <c r="N25">
-        <v>1.019656887165678</v>
+        <v>1.042435609136163</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_226/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_226/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.036885187800112</v>
+        <v>1.001148954780071</v>
       </c>
       <c r="D2">
-        <v>1.046176383518953</v>
+        <v>1.014172392091071</v>
       </c>
       <c r="E2">
-        <v>1.035747255347281</v>
+        <v>1.007413516045743</v>
       </c>
       <c r="F2">
-        <v>1.053035732050989</v>
+        <v>1.015839514575459</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034564385524929</v>
+        <v>1.047850667438607</v>
       </c>
       <c r="J2">
-        <v>1.041991068914332</v>
+        <v>1.023295355030227</v>
       </c>
       <c r="K2">
-        <v>1.04894255285619</v>
+        <v>1.025437751743317</v>
       </c>
       <c r="L2">
-        <v>1.038542974423473</v>
+        <v>1.018770526048296</v>
       </c>
       <c r="M2">
-        <v>1.055782812123899</v>
+        <v>1.027082503631766</v>
       </c>
       <c r="N2">
-        <v>1.043470815750236</v>
+        <v>1.024748551807988</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037990150260277</v>
+        <v>1.006533628662695</v>
       </c>
       <c r="D3">
-        <v>1.04725260269285</v>
+        <v>1.019150299909978</v>
       </c>
       <c r="E3">
-        <v>1.036689582796459</v>
+        <v>1.011768554389272</v>
       </c>
       <c r="F3">
-        <v>1.054260887623274</v>
+        <v>1.021420173902302</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034751415274852</v>
+        <v>1.049302755894853</v>
       </c>
       <c r="J3">
-        <v>1.042739399093332</v>
+        <v>1.026847751296232</v>
       </c>
       <c r="K3">
-        <v>1.049829673808202</v>
+        <v>1.02954387513126</v>
       </c>
       <c r="L3">
-        <v>1.039294407664711</v>
+        <v>1.022253036682548</v>
       </c>
       <c r="M3">
-        <v>1.056819875976903</v>
+        <v>1.031786123544703</v>
       </c>
       <c r="N3">
-        <v>1.044220208643925</v>
+        <v>1.028305992884155</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038704639402143</v>
+        <v>1.009932805291768</v>
       </c>
       <c r="D4">
-        <v>1.047948828407883</v>
+        <v>1.022297716053507</v>
       </c>
       <c r="E4">
-        <v>1.037299285452897</v>
+        <v>1.014523979048479</v>
       </c>
       <c r="F4">
-        <v>1.055053781990452</v>
+        <v>1.024950294993578</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034870098712282</v>
+        <v>1.050201427959359</v>
       </c>
       <c r="J4">
-        <v>1.043222578670478</v>
+        <v>1.029085796996477</v>
       </c>
       <c r="K4">
-        <v>1.050402946617055</v>
+        <v>1.03213427431791</v>
       </c>
       <c r="L4">
-        <v>1.039779968825536</v>
+        <v>1.024450216652899</v>
       </c>
       <c r="M4">
-        <v>1.057490497739609</v>
+        <v>1.034756636478975</v>
       </c>
       <c r="N4">
-        <v>1.044704074391492</v>
+        <v>1.030547216866003</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.039004892961898</v>
+        <v>1.011342300345208</v>
       </c>
       <c r="D5">
-        <v>1.048241483878764</v>
+        <v>1.023603980972178</v>
       </c>
       <c r="E5">
-        <v>1.037555593508824</v>
+        <v>1.015667974759982</v>
       </c>
       <c r="F5">
-        <v>1.055387148378964</v>
+        <v>1.026415800122116</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034919433423477</v>
+        <v>1.050569685527154</v>
       </c>
       <c r="J5">
-        <v>1.043425458651465</v>
+        <v>1.030012702228957</v>
       </c>
       <c r="K5">
-        <v>1.050643770470399</v>
+        <v>1.033207960813942</v>
       </c>
       <c r="L5">
-        <v>1.039983939398948</v>
+        <v>1.025360955153749</v>
       </c>
       <c r="M5">
-        <v>1.057772325321326</v>
+        <v>1.035988651942652</v>
       </c>
       <c r="N5">
-        <v>1.044907242485323</v>
+        <v>1.03147543841023</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039055299982286</v>
+        <v>1.011577839811949</v>
       </c>
       <c r="D6">
-        <v>1.048290619816569</v>
+        <v>1.023822337087077</v>
       </c>
       <c r="E6">
-        <v>1.037598628121025</v>
+        <v>1.015859229807737</v>
       </c>
       <c r="F6">
-        <v>1.055443124057098</v>
+        <v>1.026660799531708</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03492768410386</v>
+        <v>1.050630964990103</v>
       </c>
       <c r="J6">
-        <v>1.043459508516417</v>
+        <v>1.030167529527794</v>
       </c>
       <c r="K6">
-        <v>1.050684195309617</v>
+        <v>1.033387356378181</v>
       </c>
       <c r="L6">
-        <v>1.040018177617585</v>
+        <v>1.025513126587933</v>
       </c>
       <c r="M6">
-        <v>1.057819639460538</v>
+        <v>1.03619454781237</v>
       </c>
       <c r="N6">
-        <v>1.044941340704989</v>
+        <v>1.031630485581591</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038708651866139</v>
+        <v>1.009951714647465</v>
       </c>
       <c r="D7">
-        <v>1.047952739032618</v>
+        <v>1.022315235952677</v>
       </c>
       <c r="E7">
-        <v>1.037302710296547</v>
+        <v>1.014539320934725</v>
       </c>
       <c r="F7">
-        <v>1.055058236315402</v>
+        <v>1.024969949016829</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034870760125099</v>
+        <v>1.050206385812674</v>
       </c>
       <c r="J7">
-        <v>1.043225290539659</v>
+        <v>1.029098236552479</v>
       </c>
       <c r="K7">
-        <v>1.050406165224093</v>
+        <v>1.032148680373537</v>
       </c>
       <c r="L7">
-        <v>1.039782694916193</v>
+        <v>1.02446243624433</v>
       </c>
       <c r="M7">
-        <v>1.057494263932821</v>
+        <v>1.034773163802516</v>
       </c>
       <c r="N7">
-        <v>1.044706790111839</v>
+        <v>1.0305596740876</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037258718192485</v>
+        <v>1.002986871045459</v>
       </c>
       <c r="D8">
-        <v>1.046540130271603</v>
+        <v>1.015870389143334</v>
       </c>
       <c r="E8">
-        <v>1.036065728967626</v>
+        <v>1.008898649024617</v>
       </c>
       <c r="F8">
-        <v>1.053449751304537</v>
+        <v>1.017742792823582</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034628076916546</v>
+        <v>1.048350039608915</v>
       </c>
       <c r="J8">
-        <v>1.042244186135129</v>
+        <v>1.024508783889803</v>
       </c>
       <c r="K8">
-        <v>1.049242515863286</v>
+        <v>1.026839592886639</v>
       </c>
       <c r="L8">
-        <v>1.038797062908943</v>
+        <v>1.019959416658477</v>
       </c>
       <c r="M8">
-        <v>1.056133381691467</v>
+        <v>1.028687672699562</v>
       </c>
       <c r="N8">
-        <v>1.04372429242652</v>
+        <v>1.025963703875726</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.034699912203093</v>
+        <v>0.9900214531375434</v>
       </c>
       <c r="D9">
-        <v>1.044049683893755</v>
+        <v>1.003915263672353</v>
       </c>
       <c r="E9">
-        <v>1.033885649230949</v>
+        <v>0.9984510385145904</v>
       </c>
       <c r="F9">
-        <v>1.050616403775127</v>
+        <v>1.004348146153619</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034182547095278</v>
+        <v>1.044753171195808</v>
       </c>
       <c r="J9">
-        <v>1.040507375099616</v>
+        <v>1.015931568116482</v>
       </c>
       <c r="K9">
-        <v>1.04718622424691</v>
+        <v>1.016945136243628</v>
       </c>
       <c r="L9">
-        <v>1.037055139754492</v>
+        <v>1.011569296628009</v>
       </c>
       <c r="M9">
-        <v>1.053732026759395</v>
+        <v>1.017371069447212</v>
       </c>
       <c r="N9">
-        <v>1.041985014920121</v>
+        <v>1.017374307472187</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032991397544446</v>
+        <v>0.980850020425965</v>
       </c>
       <c r="D10">
-        <v>1.042388509681125</v>
+        <v>0.9954902981556261</v>
       </c>
       <c r="E10">
-        <v>1.032432007229662</v>
+        <v>0.9911008218279739</v>
       </c>
       <c r="F10">
-        <v>1.048728125020806</v>
+        <v>0.9949149302075333</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033873509660423</v>
+        <v>1.042117520118007</v>
       </c>
       <c r="J10">
-        <v>1.039344113071726</v>
+        <v>1.009844578894209</v>
       </c>
       <c r="K10">
-        <v>1.045811437078759</v>
+        <v>1.009941456860986</v>
       </c>
       <c r="L10">
-        <v>1.035890402446686</v>
+        <v>1.005632634402865</v>
       </c>
       <c r="M10">
-        <v>1.052128855501452</v>
+        <v>1.009376608166779</v>
       </c>
       <c r="N10">
-        <v>1.040820100926724</v>
+        <v>1.011278674027031</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.032250949379333</v>
+        <v>0.9767379752153946</v>
       </c>
       <c r="D11">
-        <v>1.041668985608133</v>
+        <v>0.9917212485063841</v>
       </c>
       <c r="E11">
-        <v>1.031802499523358</v>
+        <v>0.9878159263267299</v>
       </c>
       <c r="F11">
-        <v>1.04791061222313</v>
+        <v>0.9906958830539158</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033736844315518</v>
+        <v>1.040915194311581</v>
       </c>
       <c r="J11">
-        <v>1.038839123647446</v>
+        <v>1.0071115561536</v>
       </c>
       <c r="K11">
-        <v>1.045215199736646</v>
+        <v>1.006800997154561</v>
       </c>
       <c r="L11">
-        <v>1.0353852339823</v>
+        <v>1.002971333327397</v>
       </c>
       <c r="M11">
-        <v>1.051434115581312</v>
+        <v>1.005795420589704</v>
       </c>
       <c r="N11">
-        <v>1.040314394359539</v>
+        <v>1.008541770080648</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.031975814849908</v>
+        <v>0.9751879664460582</v>
       </c>
       <c r="D12">
-        <v>1.041401687637058</v>
+        <v>0.9903018496261661</v>
       </c>
       <c r="E12">
-        <v>1.031568661174015</v>
+        <v>0.9865793972304562</v>
       </c>
       <c r="F12">
-        <v>1.047606968901183</v>
+        <v>0.9891071396039557</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03368565256465</v>
+        <v>1.040458980839398</v>
       </c>
       <c r="J12">
-        <v>1.038651353736419</v>
+        <v>1.00608084518266</v>
       </c>
       <c r="K12">
-        <v>1.044993587775687</v>
+        <v>1.005617239736257</v>
       </c>
       <c r="L12">
-        <v>1.035197466766405</v>
+        <v>1.001968312039465</v>
       </c>
       <c r="M12">
-        <v>1.051175973592744</v>
+        <v>1.004446048052853</v>
       </c>
       <c r="N12">
-        <v>1.040126357793701</v>
+        <v>1.007509595381906</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.032034836648913</v>
+        <v>0.9755214968505551</v>
       </c>
       <c r="D13">
-        <v>1.041459025544385</v>
+        <v>0.9906072146317689</v>
       </c>
       <c r="E13">
-        <v>1.031618820806389</v>
+        <v>0.9868453951569693</v>
       </c>
       <c r="F13">
-        <v>1.047672100662093</v>
+        <v>0.9894489320160768</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033696652743491</v>
+        <v>1.040557282845758</v>
       </c>
       <c r="J13">
-        <v>1.03869163982529</v>
+        <v>1.006302655369228</v>
       </c>
       <c r="K13">
-        <v>1.045041130771902</v>
+        <v>1.005871958299093</v>
       </c>
       <c r="L13">
-        <v>1.035237749143775</v>
+        <v>1.002184134311878</v>
       </c>
       <c r="M13">
-        <v>1.051231349773729</v>
+        <v>1.00473638056602</v>
       </c>
       <c r="N13">
-        <v>1.040166701093438</v>
+        <v>1.00773172056438</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032228208703602</v>
+        <v>0.9766103212412285</v>
       </c>
       <c r="D14">
-        <v>1.041646891387673</v>
+        <v>0.9916043239336049</v>
       </c>
       <c r="E14">
-        <v>1.031783170602859</v>
+        <v>0.9877140546507764</v>
       </c>
       <c r="F14">
-        <v>1.047885512625744</v>
+        <v>0.9905650062923639</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033732621523511</v>
+        <v>1.040877682420841</v>
       </c>
       <c r="J14">
-        <v>1.038823606496614</v>
+        <v>1.007026680009447</v>
       </c>
       <c r="K14">
-        <v>1.045196884142034</v>
+        <v>1.0067035057314</v>
       </c>
       <c r="L14">
-        <v>1.035369715641896</v>
+        <v>1.002888724294595</v>
       </c>
       <c r="M14">
-        <v>1.05141277921716</v>
+        <v>1.005684279228826</v>
       </c>
       <c r="N14">
-        <v>1.040298855172572</v>
+        <v>1.008456773402634</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032347338431604</v>
+        <v>0.9772781394400646</v>
       </c>
       <c r="D15">
-        <v>1.041762637108548</v>
+        <v>0.9922160657389859</v>
       </c>
       <c r="E15">
-        <v>1.031884430443755</v>
+        <v>0.9882470629193367</v>
       </c>
       <c r="F15">
-        <v>1.048017005035839</v>
+        <v>0.991249749763064</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033754726342017</v>
+        <v>1.041073803080391</v>
       </c>
       <c r="J15">
-        <v>1.038904889744701</v>
+        <v>1.007470686615925</v>
       </c>
       <c r="K15">
-        <v>1.045292829978033</v>
+        <v>1.007213530561347</v>
       </c>
       <c r="L15">
-        <v>1.035451007956481</v>
+        <v>1.00332089725639</v>
       </c>
       <c r="M15">
-        <v>1.05152455263561</v>
+        <v>1.006265734205122</v>
       </c>
       <c r="N15">
-        <v>1.040380253852195</v>
+        <v>1.008901410549422</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.033040524831347</v>
+        <v>0.9811198357491334</v>
       </c>
       <c r="D16">
-        <v>1.042436257310676</v>
+        <v>0.995737786114074</v>
       </c>
       <c r="E16">
-        <v>1.032473784044295</v>
+        <v>0.9913165913826107</v>
       </c>
       <c r="F16">
-        <v>1.04878238315775</v>
+        <v>0.9951919853739505</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033882519644522</v>
+        <v>1.042195991083967</v>
       </c>
       <c r="J16">
-        <v>1.039377600337372</v>
+        <v>1.010023833281355</v>
       </c>
       <c r="K16">
-        <v>1.045850987398325</v>
+        <v>1.01014751951362</v>
       </c>
       <c r="L16">
-        <v>1.035923911291928</v>
+        <v>1.005807272942292</v>
       </c>
       <c r="M16">
-        <v>1.052174951291082</v>
+        <v>1.009611661254553</v>
       </c>
       <c r="N16">
-        <v>1.040853635748128</v>
+        <v>1.011458182975968</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.03347516729152</v>
+        <v>0.9834909532912948</v>
       </c>
       <c r="D17">
-        <v>1.042858740656537</v>
+        <v>0.9979136433438687</v>
       </c>
       <c r="E17">
-        <v>1.032843450615496</v>
+        <v>0.9932139720493968</v>
       </c>
       <c r="F17">
-        <v>1.049262516977541</v>
+        <v>0.9976279067694143</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033961917985873</v>
+        <v>1.042883260409618</v>
       </c>
       <c r="J17">
-        <v>1.039673773567252</v>
+        <v>1.011598673716232</v>
       </c>
       <c r="K17">
-        <v>1.04620085110643</v>
+        <v>1.011958353108375</v>
       </c>
       <c r="L17">
-        <v>1.036220328603747</v>
+        <v>1.007342040388417</v>
       </c>
       <c r="M17">
-        <v>1.052582779513871</v>
+        <v>1.011677655599162</v>
       </c>
       <c r="N17">
-        <v>1.041150229577966</v>
+        <v>1.013035259864898</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033728624263264</v>
+        <v>0.9848605111248915</v>
       </c>
       <c r="D18">
-        <v>1.043105146429992</v>
+        <v>0.99917119953648</v>
       </c>
       <c r="E18">
-        <v>1.033059064041882</v>
+        <v>0.9943108943202001</v>
       </c>
       <c r="F18">
-        <v>1.049542583002232</v>
+        <v>0.9990358723053017</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034007954700217</v>
+        <v>1.043278272279109</v>
       </c>
       <c r="J18">
-        <v>1.039846402048138</v>
+        <v>1.012507928552677</v>
       </c>
       <c r="K18">
-        <v>1.046404829524319</v>
+        <v>1.013004254507887</v>
       </c>
       <c r="L18">
-        <v>1.036393143805857</v>
+        <v>1.008228557082645</v>
       </c>
       <c r="M18">
-        <v>1.052820605226161</v>
+        <v>1.0128712686273</v>
       </c>
       <c r="N18">
-        <v>1.041323103211096</v>
+        <v>1.013945805947505</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033815035962916</v>
+        <v>0.9853252517105056</v>
       </c>
       <c r="D19">
-        <v>1.043189160793214</v>
+        <v>0.9995980643273469</v>
       </c>
       <c r="E19">
-        <v>1.03313258150396</v>
+        <v>0.9946832857464629</v>
       </c>
       <c r="F19">
-        <v>1.049638080370875</v>
+        <v>0.9995138105743743</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034023605384884</v>
+        <v>1.043411979789178</v>
       </c>
       <c r="J19">
-        <v>1.039905242826201</v>
+        <v>1.012816406340961</v>
       </c>
       <c r="K19">
-        <v>1.046474365455477</v>
+        <v>1.013359158609465</v>
       </c>
       <c r="L19">
-        <v>1.036452055770206</v>
+        <v>1.008529388058125</v>
       </c>
       <c r="M19">
-        <v>1.052901688591168</v>
+        <v>1.013276353039109</v>
       </c>
       <c r="N19">
-        <v>1.041382027549813</v>
+        <v>1.01425472180963</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.033428540756411</v>
+        <v>0.9832379587549831</v>
       </c>
       <c r="D20">
-        <v>1.04281341443407</v>
+        <v>0.9976814012313581</v>
       </c>
       <c r="E20">
-        <v>1.032803789600601</v>
+        <v>0.9930114205242914</v>
       </c>
       <c r="F20">
-        <v>1.0492110019215</v>
+        <v>0.9973678960463498</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033953427738885</v>
+        <v>1.042810132174915</v>
       </c>
       <c r="J20">
-        <v>1.039642009849591</v>
+        <v>1.011430678970836</v>
       </c>
       <c r="K20">
-        <v>1.046163323476859</v>
+        <v>1.01176514329436</v>
       </c>
       <c r="L20">
-        <v>1.036188534109955</v>
+        <v>1.007178278969196</v>
       </c>
       <c r="M20">
-        <v>1.052539028955898</v>
+        <v>1.011457186264472</v>
       </c>
       <c r="N20">
-        <v>1.041118420752182</v>
+        <v>1.012867026547695</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.032171268200869</v>
+        <v>0.9762903262502689</v>
       </c>
       <c r="D21">
-        <v>1.041591570544571</v>
+        <v>0.9913112462312944</v>
       </c>
       <c r="E21">
-        <v>1.03173477399599</v>
+        <v>0.987458716676695</v>
       </c>
       <c r="F21">
-        <v>1.047822667654117</v>
+        <v>0.9902369585042361</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033722041433267</v>
+        <v>1.040783601925467</v>
       </c>
       <c r="J21">
-        <v>1.038784750971524</v>
+        <v>1.006813909748707</v>
       </c>
       <c r="K21">
-        <v>1.045151022607032</v>
+        <v>1.006459120875156</v>
       </c>
       <c r="L21">
-        <v>1.03533085825659</v>
+        <v>1.00268164764369</v>
       </c>
       <c r="M21">
-        <v>1.051359355113607</v>
+        <v>1.005405685807181</v>
       </c>
       <c r="N21">
-        <v>1.040259944468181</v>
+        <v>1.008243700983719</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031380196882744</v>
+        <v>0.9717904195006307</v>
       </c>
       <c r="D22">
-        <v>1.040823147596005</v>
+        <v>0.9871931070057194</v>
       </c>
       <c r="E22">
-        <v>1.031062576654471</v>
+        <v>0.9838722117981517</v>
       </c>
       <c r="F22">
-        <v>1.046949866389131</v>
+        <v>0.9856276808638427</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03357408250691</v>
+        <v>1.039453557550052</v>
       </c>
       <c r="J22">
-        <v>1.038244633484564</v>
+        <v>1.003820706502241</v>
       </c>
       <c r="K22">
-        <v>1.044513721883637</v>
+        <v>1.003022612986785</v>
       </c>
       <c r="L22">
-        <v>1.03479087902466</v>
+        <v>0.9997700797051257</v>
       </c>
       <c r="M22">
-        <v>1.050617157047196</v>
+        <v>1.001489336012523</v>
       </c>
       <c r="N22">
-        <v>1.039719059952436</v>
+        <v>1.005246247045319</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031799613667886</v>
+        <v>0.9741889102163143</v>
       </c>
       <c r="D23">
-        <v>1.041230522528558</v>
+        <v>0.9893873591723772</v>
       </c>
       <c r="E23">
-        <v>1.031418927487163</v>
+        <v>0.9857828834296641</v>
       </c>
       <c r="F23">
-        <v>1.04741254586899</v>
+        <v>0.9880835730836015</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033652753130931</v>
+        <v>1.040164094349018</v>
       </c>
       <c r="J23">
-        <v>1.038531066823846</v>
+        <v>1.005416365491755</v>
       </c>
       <c r="K23">
-        <v>1.044851645723211</v>
+        <v>1.004854264589657</v>
       </c>
       <c r="L23">
-        <v>1.035077201075058</v>
+        <v>1.001321864923644</v>
       </c>
       <c r="M23">
-        <v>1.05101065712682</v>
+        <v>1.003576469527336</v>
       </c>
       <c r="N23">
-        <v>1.040005900059914</v>
+        <v>1.006844172053623</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.033449609473638</v>
+        <v>0.983352317629237</v>
       </c>
       <c r="D24">
-        <v>1.042833895469382</v>
+        <v>0.9977863771543206</v>
       </c>
       <c r="E24">
-        <v>1.032821710726896</v>
+        <v>0.993102975012054</v>
       </c>
       <c r="F24">
-        <v>1.049234279320076</v>
+        <v>0.9974854233566485</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033957264965628</v>
+        <v>1.042843193755084</v>
       </c>
       <c r="J24">
-        <v>1.039656362890293</v>
+        <v>1.011506617307569</v>
       </c>
       <c r="K24">
-        <v>1.046180280878655</v>
+        <v>1.011852478329263</v>
       </c>
       <c r="L24">
-        <v>1.03620290092006</v>
+        <v>1.007252302487368</v>
       </c>
       <c r="M24">
-        <v>1.052558798115018</v>
+        <v>1.011556842151419</v>
       </c>
       <c r="N24">
-        <v>1.041132794175849</v>
+        <v>1.012943072725577</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035361886182615</v>
+        <v>0.9934614778024957</v>
       </c>
       <c r="D25">
-        <v>1.044693675747841</v>
+        <v>1.007082017040944</v>
       </c>
       <c r="E25">
-        <v>1.034449296127219</v>
+        <v>1.001216472056083</v>
       </c>
       <c r="F25">
-        <v>1.051348778480648</v>
+        <v>1.007895017062115</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034299846193155</v>
+        <v>1.045723482766746</v>
       </c>
       <c r="J25">
-        <v>1.040957330327623</v>
+        <v>1.018210910881802</v>
       </c>
       <c r="K25">
-        <v>1.047718514569415</v>
+        <v>1.019571379671047</v>
       </c>
       <c r="L25">
-        <v>1.037506076348309</v>
+        <v>1.013795933168575</v>
       </c>
       <c r="M25">
-        <v>1.054353230978479</v>
+        <v>1.020371996988547</v>
       </c>
       <c r="N25">
-        <v>1.042435609136163</v>
+        <v>1.019656887165678</v>
       </c>
     </row>
   </sheetData>
